--- a/compilado/excel/template_producto.xlsx
+++ b/compilado/excel/template_producto.xlsx
@@ -7,19 +7,17 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$12:$H$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$12:$G$12</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>N.S.N.</t>
   </si>
@@ -30,31 +28,29 @@
     <t>N° DE PARTE</t>
   </si>
   <si>
-    <t>Ubicación</t>
-  </si>
-  <si>
-    <t>Producto</t>
-  </si>
-  <si>
     <t>Nº</t>
   </si>
   <si>
     <t>Saldo en Bodega</t>
   </si>
   <si>
-    <t>$Valor</t>
+    <t>Reporte Saldo de Stock de Inventario Año 2017</t>
   </si>
   <si>
-    <t>Reporte Saldo de Stock de Inventario Año 2017</t>
+    <t>REPUESTO</t>
+  </si>
+  <si>
+    <t>Valor $USD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-"/>
+    <numFmt numFmtId="166" formatCode="[$$-340A]\ #,##0.00"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -204,14 +200,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -240,24 +235,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -646,169 +640,154 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:G6"/>
+      <selection activeCell="D8" sqref="D8:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" style="10" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" style="10" customWidth="1"/>
-    <col min="4" max="4" width="50.140625" style="10" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" style="10" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" style="10" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="24" customWidth="1"/>
-    <col min="8" max="8" width="22.28515625" style="10" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="9"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="5.5703125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="9" customWidth="1"/>
+    <col min="4" max="4" width="50.140625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="22" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="8"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="26"/>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="3"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="4"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="26"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="4"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="26"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="4"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="24"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A6" s="27" t="s">
-        <v>8</v>
+      <c r="G5" s="18"/>
+    </row>
+    <row r="6" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A6" s="25" t="s">
+        <v>5</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G7" s="18"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="19"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="19"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="12"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="17"/>
-    </row>
-    <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
-        <v>5</v>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="19"/>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="11"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="20"/>
+    </row>
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
+        <v>3</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="G12" s="23" t="s">
+      <c r="G12" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="17"/>
     </row>
   </sheetData>
-  <autoFilter ref="A12:H12">
+  <autoFilter ref="A12:G12">
     <sortState ref="A12:H12">
       <sortCondition ref="A12"/>
     </sortState>
@@ -825,28 +804,4 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>